--- a/design/테이블정의서.xlsx
+++ b/design/테이블정의서.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aa827\Desktop\kios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07218CA0-6AC4-4B0D-9ABC-A41935775E61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{176481BE-E869-4AD1-B943-5C0E05D542D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="4" activeTab="6" xr2:uid="{B4850479-1AAE-4A20-BADC-A019768F0BCB}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="4" activeTab="6" xr2:uid="{B4850479-1AAE-4A20-BADC-A019768F0BCB}"/>
   </bookViews>
   <sheets>
     <sheet name="원본" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="934" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="951" uniqueCount="254">
   <si>
     <t>fk</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -981,6 +981,18 @@
   </si>
   <si>
     <t>sysdate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>POINNT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>생일, 아이디, 가입일, 적립금변동내역</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>적립금상세설명</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1190,7 +1202,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1343,6 +1355,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
@@ -1984,7 +2005,7 @@
       </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="53" t="s">
+      <c r="A18" s="56" t="s">
         <v>19</v>
       </c>
       <c r="B18" s="3" t="s">
@@ -2004,7 +2025,7 @@
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="53"/>
+      <c r="A19" s="56"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3" t="s">
         <v>16</v>
@@ -2019,7 +2040,7 @@
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="53"/>
+      <c r="A20" s="56"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3" t="s">
         <v>15</v>
@@ -2031,7 +2052,7 @@
       <c r="F20" s="4"/>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="53"/>
+      <c r="A21" s="56"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3" t="s">
         <v>14</v>
@@ -2046,7 +2067,7 @@
       </c>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="53"/>
+      <c r="A22" s="56"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3" t="s">
         <v>13</v>
@@ -2058,7 +2079,7 @@
       <c r="F22" s="3"/>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="53"/>
+      <c r="A23" s="56"/>
       <c r="B23" s="1" t="s">
         <v>12</v>
       </c>
@@ -2077,7 +2098,7 @@
       </c>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="53"/>
+      <c r="A24" s="56"/>
       <c r="B24" s="1"/>
       <c r="C24" t="s">
         <v>11</v>
@@ -2087,7 +2108,7 @@
       </c>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="53"/>
+      <c r="A25" s="56"/>
       <c r="B25" s="1"/>
       <c r="C25" t="s">
         <v>10</v>
@@ -2100,7 +2121,7 @@
       </c>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="53"/>
+      <c r="A26" s="56"/>
       <c r="B26" s="1"/>
       <c r="C26" t="s">
         <v>7</v>
@@ -2327,7 +2348,7 @@
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="54" t="s">
+      <c r="A12" s="57" t="s">
         <v>52</v>
       </c>
       <c r="B12" s="9" t="s">
@@ -2345,7 +2366,7 @@
       <c r="F12" s="7"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="54"/>
+      <c r="A13" s="57"/>
       <c r="B13" s="9"/>
       <c r="C13" s="7" t="s">
         <v>30</v>
@@ -2359,7 +2380,7 @@
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="54"/>
+      <c r="A14" s="57"/>
       <c r="B14" s="9"/>
       <c r="C14" s="8" t="s">
         <v>28</v>
@@ -2373,7 +2394,7 @@
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="54"/>
+      <c r="A15" s="57"/>
       <c r="B15" s="9"/>
       <c r="C15" s="8" t="s">
         <v>25</v>
@@ -2387,7 +2408,7 @@
       <c r="F15" s="7"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="54"/>
+      <c r="A16" s="57"/>
       <c r="B16" s="9"/>
       <c r="C16" s="8" t="s">
         <v>23</v>
@@ -2399,7 +2420,7 @@
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="54"/>
+      <c r="A17" s="57"/>
       <c r="B17" s="9"/>
       <c r="C17" s="8" t="s">
         <v>21</v>
@@ -2413,7 +2434,7 @@
       </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="55" t="s">
+      <c r="A18" s="58" t="s">
         <v>51</v>
       </c>
       <c r="B18" s="3" t="s">
@@ -2433,7 +2454,7 @@
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="55"/>
+      <c r="A19" s="58"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3" t="s">
         <v>16</v>
@@ -2448,7 +2469,7 @@
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="55"/>
+      <c r="A20" s="58"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3" t="s">
         <v>15</v>
@@ -2460,7 +2481,7 @@
       <c r="F20" s="4"/>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="55"/>
+      <c r="A21" s="58"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3" t="s">
         <v>14</v>
@@ -2475,7 +2496,7 @@
       </c>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="55"/>
+      <c r="A22" s="58"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3" t="s">
         <v>13</v>
@@ -2487,7 +2508,7 @@
       <c r="F22" s="3"/>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="55" t="s">
+      <c r="A23" s="58" t="s">
         <v>50</v>
       </c>
       <c r="B23" s="1" t="s">
@@ -2508,7 +2529,7 @@
       </c>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="55"/>
+      <c r="A24" s="58"/>
       <c r="B24" s="1"/>
       <c r="C24" t="s">
         <v>11</v>
@@ -2518,7 +2539,7 @@
       </c>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="55"/>
+      <c r="A25" s="58"/>
       <c r="B25" s="1"/>
       <c r="C25" t="s">
         <v>10</v>
@@ -2531,7 +2552,7 @@
       </c>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="55"/>
+      <c r="A26" s="58"/>
       <c r="B26" s="1"/>
       <c r="C26" t="s">
         <v>7</v>
@@ -2766,7 +2787,7 @@
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="54" t="s">
+      <c r="A12" s="57" t="s">
         <v>52</v>
       </c>
       <c r="B12" s="9" t="s">
@@ -2784,7 +2805,7 @@
       <c r="F12" s="7"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="54"/>
+      <c r="A13" s="57"/>
       <c r="B13" s="9"/>
       <c r="C13" s="7" t="s">
         <v>30</v>
@@ -2798,7 +2819,7 @@
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="54"/>
+      <c r="A14" s="57"/>
       <c r="B14" s="9"/>
       <c r="C14" s="8" t="s">
         <v>28</v>
@@ -2812,7 +2833,7 @@
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="54"/>
+      <c r="A15" s="57"/>
       <c r="B15" s="9"/>
       <c r="C15" s="8" t="s">
         <v>25</v>
@@ -2826,7 +2847,7 @@
       <c r="F15" s="7"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="54"/>
+      <c r="A16" s="57"/>
       <c r="B16" s="9"/>
       <c r="C16" s="8" t="s">
         <v>23</v>
@@ -2838,7 +2859,7 @@
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="54"/>
+      <c r="A17" s="57"/>
       <c r="B17" s="9"/>
       <c r="C17" s="8" t="s">
         <v>21</v>
@@ -2852,7 +2873,7 @@
       </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="55" t="s">
+      <c r="A18" s="58" t="s">
         <v>51</v>
       </c>
       <c r="B18" s="3" t="s">
@@ -2872,7 +2893,7 @@
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="55"/>
+      <c r="A19" s="58"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3" t="s">
         <v>67</v>
@@ -2884,7 +2905,7 @@
       <c r="F19" s="3"/>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="55"/>
+      <c r="A20" s="58"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3" t="s">
         <v>66</v>
@@ -2898,7 +2919,7 @@
       <c r="F20" s="3"/>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="55"/>
+      <c r="A21" s="58"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3" t="s">
         <v>63</v>
@@ -2910,7 +2931,7 @@
       <c r="F21" s="3"/>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="55" t="s">
+      <c r="A22" s="58" t="s">
         <v>50</v>
       </c>
       <c r="B22" s="1" t="s">
@@ -2928,7 +2949,7 @@
       </c>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="55"/>
+      <c r="A23" s="58"/>
       <c r="B23" s="1"/>
       <c r="C23" t="s">
         <v>61</v>
@@ -2939,7 +2960,7 @@
       <c r="F23" s="2"/>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="55"/>
+      <c r="A24" s="58"/>
       <c r="B24" s="1"/>
       <c r="C24" t="s">
         <v>60</v>
@@ -2953,7 +2974,7 @@
       </c>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="55"/>
+      <c r="A25" s="58"/>
       <c r="B25" s="1"/>
       <c r="C25" t="s">
         <v>59</v>
@@ -2963,7 +2984,7 @@
       </c>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="55"/>
+      <c r="A26" s="58"/>
       <c r="B26" s="1"/>
       <c r="C26" t="s">
         <v>7</v>
@@ -3143,7 +3164,7 @@
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="54" t="s">
+      <c r="A8" s="57" t="s">
         <v>52</v>
       </c>
       <c r="B8" s="9" t="s">
@@ -3161,7 +3182,7 @@
       <c r="F8" s="7"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="54"/>
+      <c r="A9" s="57"/>
       <c r="B9" s="9"/>
       <c r="C9" s="7" t="s">
         <v>30</v>
@@ -3175,7 +3196,7 @@
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="54"/>
+      <c r="A10" s="57"/>
       <c r="B10" s="9"/>
       <c r="C10" s="8" t="s">
         <v>28</v>
@@ -3189,7 +3210,7 @@
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="54"/>
+      <c r="A11" s="57"/>
       <c r="B11" s="9"/>
       <c r="C11" s="8" t="s">
         <v>25</v>
@@ -3203,7 +3224,7 @@
       <c r="F11" s="7"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="54"/>
+      <c r="A12" s="57"/>
       <c r="B12" s="9"/>
       <c r="C12" s="8" t="s">
         <v>23</v>
@@ -3215,7 +3236,7 @@
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="54"/>
+      <c r="A13" s="57"/>
       <c r="B13" s="9"/>
       <c r="C13" s="8" t="s">
         <v>21</v>
@@ -3229,7 +3250,7 @@
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="55" t="s">
+      <c r="A14" s="58" t="s">
         <v>51</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -3249,7 +3270,7 @@
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="55"/>
+      <c r="A15" s="58"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3" t="s">
         <v>67</v>
@@ -3261,7 +3282,7 @@
       <c r="F15" s="3"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="55"/>
+      <c r="A16" s="58"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3" t="s">
         <v>66</v>
@@ -3275,7 +3296,7 @@
       <c r="F16" s="3"/>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="55"/>
+      <c r="A17" s="58"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3" t="s">
         <v>63</v>
@@ -3287,7 +3308,7 @@
       <c r="F17" s="3"/>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="55" t="s">
+      <c r="A18" s="58" t="s">
         <v>50</v>
       </c>
       <c r="B18" s="1" t="s">
@@ -3305,7 +3326,7 @@
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="55"/>
+      <c r="A19" s="58"/>
       <c r="B19" s="1"/>
       <c r="C19" t="s">
         <v>11</v>
@@ -3316,7 +3337,7 @@
       <c r="F19" s="2"/>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="55"/>
+      <c r="A20" s="58"/>
       <c r="B20" s="1"/>
       <c r="C20" t="s">
         <v>68</v>
@@ -3422,10 +3443,10 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="34" customHeight="1">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="61" t="s">
         <v>91</v>
       </c>
-      <c r="B2" s="56" t="s">
+      <c r="B2" s="59" t="s">
         <v>57</v>
       </c>
       <c r="C2" s="19" t="s">
@@ -3444,8 +3465,8 @@
       <c r="H2" s="20"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="58"/>
-      <c r="B3" s="56"/>
+      <c r="A3" s="61"/>
+      <c r="B3" s="59"/>
       <c r="C3" s="21" t="s">
         <v>55</v>
       </c>
@@ -3464,10 +3485,10 @@
       <c r="H3" s="22"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="59" t="s">
+      <c r="A4" s="62" t="s">
         <v>90</v>
       </c>
-      <c r="B4" s="60" t="s">
+      <c r="B4" s="63" t="s">
         <v>72</v>
       </c>
       <c r="C4" s="23" t="s">
@@ -3486,8 +3507,8 @@
       <c r="H4" s="24"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="59"/>
-      <c r="B5" s="60"/>
+      <c r="A5" s="62"/>
+      <c r="B5" s="63"/>
       <c r="C5" s="25" t="s">
         <v>69</v>
       </c>
@@ -3504,8 +3525,8 @@
       <c r="H5" s="26"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="59"/>
-      <c r="B6" s="60"/>
+      <c r="A6" s="62"/>
+      <c r="B6" s="63"/>
       <c r="C6" s="25" t="s">
         <v>34</v>
       </c>
@@ -3522,8 +3543,8 @@
       <c r="H6" s="26"/>
     </row>
     <row r="7" spans="1:8" s="8" customFormat="1">
-      <c r="A7" s="59"/>
-      <c r="B7" s="60"/>
+      <c r="A7" s="62"/>
+      <c r="B7" s="63"/>
       <c r="C7" s="27" t="s">
         <v>70</v>
       </c>
@@ -3543,10 +3564,10 @@
       <c r="H7" s="29"/>
     </row>
     <row r="8" spans="1:8" s="12" customFormat="1">
-      <c r="A8" s="58" t="s">
+      <c r="A8" s="61" t="s">
         <v>89</v>
       </c>
-      <c r="B8" s="56" t="s">
+      <c r="B8" s="59" t="s">
         <v>18</v>
       </c>
       <c r="C8" s="19" t="s">
@@ -3567,8 +3588,8 @@
       <c r="H8" s="20"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="58"/>
-      <c r="B9" s="56"/>
+      <c r="A9" s="61"/>
+      <c r="B9" s="59"/>
       <c r="C9" s="21" t="s">
         <v>67</v>
       </c>
@@ -3583,8 +3604,8 @@
       <c r="H9" s="22"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="58"/>
-      <c r="B10" s="56"/>
+      <c r="A10" s="61"/>
+      <c r="B10" s="59"/>
       <c r="C10" s="21" t="s">
         <v>66</v>
       </c>
@@ -3601,8 +3622,8 @@
       <c r="H10" s="22"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="58"/>
-      <c r="B11" s="56"/>
+      <c r="A11" s="61"/>
+      <c r="B11" s="59"/>
       <c r="C11" s="21" t="s">
         <v>63</v>
       </c>
@@ -3617,10 +3638,10 @@
       <c r="H11" s="22"/>
     </row>
     <row r="12" spans="1:8" s="8" customFormat="1">
-      <c r="A12" s="59" t="s">
+      <c r="A12" s="62" t="s">
         <v>99</v>
       </c>
-      <c r="B12" s="60" t="s">
+      <c r="B12" s="63" t="s">
         <v>12</v>
       </c>
       <c r="C12" s="27" t="s">
@@ -3643,8 +3664,8 @@
       <c r="H12" s="29"/>
     </row>
     <row r="13" spans="1:8" s="8" customFormat="1">
-      <c r="A13" s="59"/>
-      <c r="B13" s="60"/>
+      <c r="A13" s="62"/>
+      <c r="B13" s="63"/>
       <c r="C13" s="27" t="s">
         <v>69</v>
       </c>
@@ -3664,8 +3685,8 @@
       <c r="H13" s="29"/>
     </row>
     <row r="14" spans="1:8" s="8" customFormat="1">
-      <c r="A14" s="59"/>
-      <c r="B14" s="60"/>
+      <c r="A14" s="62"/>
+      <c r="B14" s="63"/>
       <c r="C14" s="27" t="s">
         <v>55</v>
       </c>
@@ -3686,8 +3707,8 @@
       <c r="H14" s="29"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="59"/>
-      <c r="B15" s="60"/>
+      <c r="A15" s="62"/>
+      <c r="B15" s="63"/>
       <c r="C15" s="25" t="s">
         <v>86</v>
       </c>
@@ -3708,8 +3729,8 @@
       </c>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="59"/>
-      <c r="B16" s="60"/>
+      <c r="A16" s="62"/>
+      <c r="B16" s="63"/>
       <c r="C16" s="25" t="s">
         <v>83</v>
       </c>
@@ -3726,8 +3747,8 @@
       <c r="H16" s="26"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="59"/>
-      <c r="B17" s="60"/>
+      <c r="A17" s="62"/>
+      <c r="B17" s="63"/>
       <c r="C17" s="25" t="s">
         <v>80</v>
       </c>
@@ -3748,8 +3769,8 @@
       </c>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="59"/>
-      <c r="B18" s="60"/>
+      <c r="A18" s="62"/>
+      <c r="B18" s="63"/>
       <c r="C18" s="25" t="s">
         <v>78</v>
       </c>
@@ -3766,8 +3787,8 @@
       <c r="H18" s="26"/>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="59"/>
-      <c r="B19" s="60"/>
+      <c r="A19" s="62"/>
+      <c r="B19" s="63"/>
       <c r="C19" s="25" t="s">
         <v>76</v>
       </c>
@@ -3788,8 +3809,8 @@
       </c>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="59"/>
-      <c r="B20" s="60"/>
+      <c r="A20" s="62"/>
+      <c r="B20" s="63"/>
       <c r="C20" s="25" t="s">
         <v>68</v>
       </c>
@@ -3808,10 +3829,10 @@
       <c r="H20" s="26"/>
     </row>
     <row r="21" spans="1:8" s="12" customFormat="1">
-      <c r="A21" s="57" t="s">
+      <c r="A21" s="60" t="s">
         <v>98</v>
       </c>
-      <c r="B21" s="56" t="s">
+      <c r="B21" s="59" t="s">
         <v>97</v>
       </c>
       <c r="C21" s="19" t="s">
@@ -3830,8 +3851,8 @@
       <c r="H21" s="20"/>
     </row>
     <row r="22" spans="1:8" s="12" customFormat="1">
-      <c r="A22" s="57"/>
-      <c r="B22" s="56"/>
+      <c r="A22" s="60"/>
+      <c r="B22" s="59"/>
       <c r="C22" s="21" t="s">
         <v>96</v>
       </c>
@@ -3848,8 +3869,8 @@
       <c r="H22" s="20"/>
     </row>
     <row r="23" spans="1:8" s="12" customFormat="1">
-      <c r="A23" s="57"/>
-      <c r="B23" s="56"/>
+      <c r="A23" s="60"/>
+      <c r="B23" s="59"/>
       <c r="C23" s="21" t="s">
         <v>2</v>
       </c>
@@ -3866,8 +3887,8 @@
       <c r="H23" s="20"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="57"/>
-      <c r="B24" s="56"/>
+      <c r="A24" s="60"/>
+      <c r="B24" s="59"/>
       <c r="C24" s="34" t="s">
         <v>94</v>
       </c>
@@ -3884,8 +3905,8 @@
       <c r="H24" s="32"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="57"/>
-      <c r="B25" s="56"/>
+      <c r="A25" s="60"/>
+      <c r="B25" s="59"/>
       <c r="C25" s="33" t="s">
         <v>86</v>
       </c>
@@ -3903,8 +3924,8 @@
       <c r="H25" s="32"/>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="57"/>
-      <c r="B26" s="56"/>
+      <c r="A26" s="60"/>
+      <c r="B26" s="59"/>
       <c r="C26" s="33" t="s">
         <v>80</v>
       </c>
@@ -3922,8 +3943,8 @@
       <c r="H26" s="32"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="57"/>
-      <c r="B27" s="56"/>
+      <c r="A27" s="60"/>
+      <c r="B27" s="59"/>
       <c r="C27" s="33" t="s">
         <v>76</v>
       </c>
@@ -3941,8 +3962,8 @@
       <c r="H27" s="32"/>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="57"/>
-      <c r="B28" s="56"/>
+      <c r="A28" s="60"/>
+      <c r="B28" s="59"/>
       <c r="C28" s="33" t="s">
         <v>95</v>
       </c>
@@ -3960,8 +3981,8 @@
       <c r="H28" s="32"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="57"/>
-      <c r="B29" s="56"/>
+      <c r="A29" s="60"/>
+      <c r="B29" s="59"/>
       <c r="C29" s="33" t="s">
         <v>100</v>
       </c>
@@ -4049,10 +4070,10 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="34" customHeight="1">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="61" t="s">
         <v>91</v>
       </c>
-      <c r="B2" s="56" t="s">
+      <c r="B2" s="59" t="s">
         <v>57</v>
       </c>
       <c r="C2" s="19" t="s">
@@ -4071,8 +4092,8 @@
       <c r="H2" s="20"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="58"/>
-      <c r="B3" s="56"/>
+      <c r="A3" s="61"/>
+      <c r="B3" s="59"/>
       <c r="C3" s="21" t="s">
         <v>55</v>
       </c>
@@ -4091,10 +4112,10 @@
       <c r="H3" s="35"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="59" t="s">
+      <c r="A4" s="62" t="s">
         <v>90</v>
       </c>
-      <c r="B4" s="60" t="s">
+      <c r="B4" s="63" t="s">
         <v>72</v>
       </c>
       <c r="C4" s="23" t="s">
@@ -4113,8 +4134,8 @@
       <c r="H4" s="24"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="59"/>
-      <c r="B5" s="60"/>
+      <c r="A5" s="62"/>
+      <c r="B5" s="63"/>
       <c r="C5" s="25" t="s">
         <v>69</v>
       </c>
@@ -4131,8 +4152,8 @@
       <c r="H5" s="36"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="59"/>
-      <c r="B6" s="60"/>
+      <c r="A6" s="62"/>
+      <c r="B6" s="63"/>
       <c r="C6" s="25" t="s">
         <v>34</v>
       </c>
@@ -4149,8 +4170,8 @@
       <c r="H6" s="36"/>
     </row>
     <row r="7" spans="1:8" s="8" customFormat="1">
-      <c r="A7" s="59"/>
-      <c r="B7" s="60"/>
+      <c r="A7" s="62"/>
+      <c r="B7" s="63"/>
       <c r="C7" s="27" t="s">
         <v>70</v>
       </c>
@@ -4170,10 +4191,10 @@
       <c r="H7" s="29"/>
     </row>
     <row r="8" spans="1:8" s="12" customFormat="1">
-      <c r="A8" s="65" t="s">
+      <c r="A8" s="68" t="s">
         <v>89</v>
       </c>
-      <c r="B8" s="68" t="s">
+      <c r="B8" s="71" t="s">
         <v>18</v>
       </c>
       <c r="C8" s="19" t="s">
@@ -4194,8 +4215,8 @@
       <c r="H8" s="20"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="66"/>
-      <c r="B9" s="69"/>
+      <c r="A9" s="69"/>
+      <c r="B9" s="72"/>
       <c r="C9" s="21" t="s">
         <v>67</v>
       </c>
@@ -4210,8 +4231,8 @@
       <c r="H9" s="35"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="66"/>
-      <c r="B10" s="69"/>
+      <c r="A10" s="69"/>
+      <c r="B10" s="72"/>
       <c r="C10" s="21" t="s">
         <v>66</v>
       </c>
@@ -4228,8 +4249,8 @@
       <c r="H10" s="35"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="66"/>
-      <c r="B11" s="69"/>
+      <c r="A11" s="69"/>
+      <c r="B11" s="72"/>
       <c r="C11" s="21" t="s">
         <v>63</v>
       </c>
@@ -4244,8 +4265,8 @@
       <c r="H11" s="35"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="67"/>
-      <c r="B12" s="70"/>
+      <c r="A12" s="70"/>
+      <c r="B12" s="73"/>
       <c r="C12" s="21" t="s">
         <v>145</v>
       </c>
@@ -4256,10 +4277,10 @@
       <c r="H12" s="37"/>
     </row>
     <row r="13" spans="1:8" s="8" customFormat="1">
-      <c r="A13" s="59" t="s">
+      <c r="A13" s="62" t="s">
         <v>99</v>
       </c>
-      <c r="B13" s="60" t="s">
+      <c r="B13" s="63" t="s">
         <v>12</v>
       </c>
       <c r="C13" s="27" t="s">
@@ -4282,8 +4303,8 @@
       <c r="H13" s="29"/>
     </row>
     <row r="14" spans="1:8" s="8" customFormat="1">
-      <c r="A14" s="59"/>
-      <c r="B14" s="60"/>
+      <c r="A14" s="62"/>
+      <c r="B14" s="63"/>
       <c r="C14" s="27" t="s">
         <v>69</v>
       </c>
@@ -4303,8 +4324,8 @@
       <c r="H14" s="29"/>
     </row>
     <row r="15" spans="1:8" s="8" customFormat="1">
-      <c r="A15" s="59"/>
-      <c r="B15" s="60"/>
+      <c r="A15" s="62"/>
+      <c r="B15" s="63"/>
       <c r="C15" s="27" t="s">
         <v>55</v>
       </c>
@@ -4325,8 +4346,8 @@
       <c r="H15" s="29"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="59"/>
-      <c r="B16" s="60"/>
+      <c r="A16" s="62"/>
+      <c r="B16" s="63"/>
       <c r="C16" s="25" t="s">
         <v>86</v>
       </c>
@@ -4347,8 +4368,8 @@
       </c>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="59"/>
-      <c r="B17" s="60"/>
+      <c r="A17" s="62"/>
+      <c r="B17" s="63"/>
       <c r="C17" s="25" t="s">
         <v>83</v>
       </c>
@@ -4365,8 +4386,8 @@
       <c r="H17" s="36"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="59"/>
-      <c r="B18" s="60"/>
+      <c r="A18" s="62"/>
+      <c r="B18" s="63"/>
       <c r="C18" s="25" t="s">
         <v>80</v>
       </c>
@@ -4387,8 +4408,8 @@
       </c>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="59"/>
-      <c r="B19" s="60"/>
+      <c r="A19" s="62"/>
+      <c r="B19" s="63"/>
       <c r="C19" s="25" t="s">
         <v>78</v>
       </c>
@@ -4405,8 +4426,8 @@
       <c r="H19" s="36"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="59"/>
-      <c r="B20" s="60"/>
+      <c r="A20" s="62"/>
+      <c r="B20" s="63"/>
       <c r="C20" s="25" t="s">
         <v>76</v>
       </c>
@@ -4427,8 +4448,8 @@
       </c>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="59"/>
-      <c r="B21" s="60"/>
+      <c r="A21" s="62"/>
+      <c r="B21" s="63"/>
       <c r="C21" s="25" t="s">
         <v>68</v>
       </c>
@@ -4447,10 +4468,10 @@
       <c r="H21" s="36"/>
     </row>
     <row r="22" spans="1:8" s="12" customFormat="1">
-      <c r="A22" s="57" t="s">
+      <c r="A22" s="60" t="s">
         <v>98</v>
       </c>
-      <c r="B22" s="56" t="s">
+      <c r="B22" s="59" t="s">
         <v>97</v>
       </c>
       <c r="C22" s="19" t="s">
@@ -4469,8 +4490,8 @@
       <c r="H22" s="20"/>
     </row>
     <row r="23" spans="1:8" s="12" customFormat="1">
-      <c r="A23" s="57"/>
-      <c r="B23" s="56"/>
+      <c r="A23" s="60"/>
+      <c r="B23" s="59"/>
       <c r="C23" s="21" t="s">
         <v>96</v>
       </c>
@@ -4487,8 +4508,8 @@
       <c r="H23" s="20"/>
     </row>
     <row r="24" spans="1:8" s="12" customFormat="1">
-      <c r="A24" s="57"/>
-      <c r="B24" s="56"/>
+      <c r="A24" s="60"/>
+      <c r="B24" s="59"/>
       <c r="C24" s="21" t="s">
         <v>2</v>
       </c>
@@ -4505,8 +4526,8 @@
       <c r="H24" s="20"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="57"/>
-      <c r="B25" s="56"/>
+      <c r="A25" s="60"/>
+      <c r="B25" s="59"/>
       <c r="C25" s="34" t="s">
         <v>94</v>
       </c>
@@ -4523,8 +4544,8 @@
       <c r="H25" s="32"/>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="57"/>
-      <c r="B26" s="56"/>
+      <c r="A26" s="60"/>
+      <c r="B26" s="59"/>
       <c r="C26" s="33" t="s">
         <v>86</v>
       </c>
@@ -4542,8 +4563,8 @@
       <c r="H26" s="32"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="57"/>
-      <c r="B27" s="56"/>
+      <c r="A27" s="60"/>
+      <c r="B27" s="59"/>
       <c r="C27" s="33" t="s">
         <v>80</v>
       </c>
@@ -4561,8 +4582,8 @@
       <c r="H27" s="32"/>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="57"/>
-      <c r="B28" s="56"/>
+      <c r="A28" s="60"/>
+      <c r="B28" s="59"/>
       <c r="C28" s="33" t="s">
         <v>76</v>
       </c>
@@ -4580,8 +4601,8 @@
       <c r="H28" s="32"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="57"/>
-      <c r="B29" s="56"/>
+      <c r="A29" s="60"/>
+      <c r="B29" s="59"/>
       <c r="C29" s="33" t="s">
         <v>95</v>
       </c>
@@ -4599,8 +4620,8 @@
       <c r="H29" s="32"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="57"/>
-      <c r="B30" s="56"/>
+      <c r="A30" s="60"/>
+      <c r="B30" s="59"/>
       <c r="C30" s="33" t="s">
         <v>100</v>
       </c>
@@ -4620,10 +4641,10 @@
       <c r="H30" s="32"/>
     </row>
     <row r="31" spans="1:8" s="12" customFormat="1">
-      <c r="A31" s="62" t="s">
+      <c r="A31" s="65" t="s">
         <v>151</v>
       </c>
-      <c r="B31" s="61" t="s">
+      <c r="B31" s="64" t="s">
         <v>132</v>
       </c>
       <c r="C31" s="39" t="s">
@@ -4642,8 +4663,8 @@
       <c r="H31" s="41"/>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="63"/>
-      <c r="B32" s="61"/>
+      <c r="A32" s="66"/>
+      <c r="B32" s="64"/>
       <c r="C32" s="42" t="s">
         <v>134</v>
       </c>
@@ -4660,8 +4681,8 @@
       <c r="H32" s="43"/>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="63"/>
-      <c r="B33" s="61"/>
+      <c r="A33" s="66"/>
+      <c r="B33" s="64"/>
       <c r="C33" s="42" t="s">
         <v>136</v>
       </c>
@@ -4678,8 +4699,8 @@
       <c r="H33" s="43"/>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="63"/>
-      <c r="B34" s="61"/>
+      <c r="A34" s="66"/>
+      <c r="B34" s="64"/>
       <c r="C34" s="42" t="s">
         <v>138</v>
       </c>
@@ -4696,8 +4717,8 @@
       <c r="H34" s="43"/>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="63"/>
-      <c r="B35" s="61"/>
+      <c r="A35" s="66"/>
+      <c r="B35" s="64"/>
       <c r="C35" s="42" t="s">
         <v>140</v>
       </c>
@@ -4714,8 +4735,8 @@
       <c r="H35" s="43"/>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="64"/>
-      <c r="B36" s="61"/>
+      <c r="A36" s="67"/>
+      <c r="B36" s="64"/>
       <c r="C36" s="42" t="s">
         <v>142</v>
       </c>
@@ -4756,11 +4777,11 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:K61"/>
+  <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="96" zoomScaleNormal="160" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A51" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F65" sqref="F65"/>
+      <pane ySplit="2" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L65" sqref="L65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
@@ -4780,63 +4801,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="74" t="s">
         <v>204</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="72" t="s">
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="75" t="s">
         <v>207</v>
       </c>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="72"/>
-      <c r="I1" s="72"/>
-      <c r="J1" s="72"/>
-      <c r="K1" s="72"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="71" t="s">
+      <c r="A2" s="74" t="s">
         <v>206</v>
       </c>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="72" t="s">
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="75" t="s">
         <v>208</v>
       </c>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="71" t="s">
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="74" t="s">
         <v>205</v>
       </c>
-      <c r="H2" s="71"/>
-      <c r="I2" s="73">
+      <c r="H2" s="74"/>
+      <c r="I2" s="76">
         <v>44456</v>
       </c>
-      <c r="J2" s="74"/>
-      <c r="K2" s="74"/>
+      <c r="J2" s="77"/>
+      <c r="K2" s="77"/>
     </row>
     <row r="4" spans="1:11" s="6" customFormat="1">
-      <c r="A4" s="75" t="s">
+      <c r="A4" s="78" t="s">
         <v>48</v>
       </c>
-      <c r="B4" s="75"/>
-      <c r="C4" s="75"/>
-      <c r="D4" s="76" t="s">
+      <c r="B4" s="78"/>
+      <c r="C4" s="78"/>
+      <c r="D4" s="79" t="s">
         <v>162</v>
       </c>
-      <c r="E4" s="76"/>
+      <c r="E4" s="79"/>
       <c r="F4" s="44" t="s">
         <v>152</v>
       </c>
-      <c r="G4" s="76" t="s">
+      <c r="G4" s="79" t="s">
         <v>163</v>
       </c>
-      <c r="H4" s="76"/>
-      <c r="I4" s="76"/>
-      <c r="J4" s="76"/>
-      <c r="K4" s="76"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="79"/>
+      <c r="K4" s="79"/>
     </row>
     <row r="5" spans="1:11" s="6" customFormat="1">
       <c r="A5" s="44" t="s">
@@ -4928,25 +4949,25 @@
       <c r="K7" s="32"/>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="75" t="s">
+      <c r="A9" s="78" t="s">
         <v>48</v>
       </c>
-      <c r="B9" s="75"/>
-      <c r="C9" s="75"/>
-      <c r="D9" s="76" t="s">
+      <c r="B9" s="78"/>
+      <c r="C9" s="78"/>
+      <c r="D9" s="79" t="s">
         <v>197</v>
       </c>
-      <c r="E9" s="76"/>
+      <c r="E9" s="79"/>
       <c r="F9" s="44" t="s">
         <v>152</v>
       </c>
-      <c r="G9" s="76" t="s">
+      <c r="G9" s="79" t="s">
         <v>163</v>
       </c>
-      <c r="H9" s="76"/>
-      <c r="I9" s="76"/>
-      <c r="J9" s="76"/>
-      <c r="K9" s="76"/>
+      <c r="H9" s="79"/>
+      <c r="I9" s="79"/>
+      <c r="J9" s="79"/>
+      <c r="K9" s="79"/>
     </row>
     <row r="10" spans="1:11" s="6" customFormat="1">
       <c r="A10" s="44" t="s">
@@ -5092,25 +5113,25 @@
       </c>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="75" t="s">
+      <c r="A16" s="78" t="s">
         <v>48</v>
       </c>
-      <c r="B16" s="75"/>
-      <c r="C16" s="75"/>
-      <c r="D16" s="76" t="s">
+      <c r="B16" s="78"/>
+      <c r="C16" s="78"/>
+      <c r="D16" s="79" t="s">
         <v>198</v>
       </c>
-      <c r="E16" s="76"/>
+      <c r="E16" s="79"/>
       <c r="F16" s="44" t="s">
         <v>152</v>
       </c>
-      <c r="G16" s="76" t="s">
+      <c r="G16" s="79" t="s">
         <v>163</v>
       </c>
-      <c r="H16" s="76"/>
-      <c r="I16" s="76"/>
-      <c r="J16" s="76"/>
-      <c r="K16" s="76"/>
+      <c r="H16" s="79"/>
+      <c r="I16" s="79"/>
+      <c r="J16" s="79"/>
+      <c r="K16" s="79"/>
     </row>
     <row r="17" spans="1:11" s="6" customFormat="1">
       <c r="A17" s="44" t="s">
@@ -5327,25 +5348,25 @@
       <c r="K24" s="38"/>
     </row>
     <row r="26" spans="1:11">
-      <c r="A26" s="75" t="s">
+      <c r="A26" s="78" t="s">
         <v>48</v>
       </c>
-      <c r="B26" s="75"/>
-      <c r="C26" s="75"/>
-      <c r="D26" s="76" t="s">
+      <c r="B26" s="78"/>
+      <c r="C26" s="78"/>
+      <c r="D26" s="79" t="s">
         <v>199</v>
       </c>
-      <c r="E26" s="76"/>
+      <c r="E26" s="79"/>
       <c r="F26" s="44" t="s">
         <v>152</v>
       </c>
-      <c r="G26" s="76" t="s">
+      <c r="G26" s="79" t="s">
         <v>163</v>
       </c>
-      <c r="H26" s="76"/>
-      <c r="I26" s="76"/>
-      <c r="J26" s="76"/>
-      <c r="K26" s="76"/>
+      <c r="H26" s="79"/>
+      <c r="I26" s="79"/>
+      <c r="J26" s="79"/>
+      <c r="K26" s="79"/>
     </row>
     <row r="27" spans="1:11" s="6" customFormat="1">
       <c r="A27" s="44" t="s">
@@ -5651,25 +5672,25 @@
       <c r="K37" s="38"/>
     </row>
     <row r="39" spans="1:11">
-      <c r="A39" s="75" t="s">
+      <c r="A39" s="78" t="s">
         <v>48</v>
       </c>
-      <c r="B39" s="75"/>
-      <c r="C39" s="75"/>
-      <c r="D39" s="76" t="s">
+      <c r="B39" s="78"/>
+      <c r="C39" s="78"/>
+      <c r="D39" s="79" t="s">
         <v>200</v>
       </c>
-      <c r="E39" s="76"/>
+      <c r="E39" s="79"/>
       <c r="F39" s="44" t="s">
         <v>152</v>
       </c>
-      <c r="G39" s="76" t="s">
+      <c r="G39" s="79" t="s">
         <v>163</v>
       </c>
-      <c r="H39" s="76"/>
-      <c r="I39" s="76"/>
-      <c r="J39" s="76"/>
-      <c r="K39" s="76"/>
+      <c r="H39" s="79"/>
+      <c r="I39" s="79"/>
+      <c r="J39" s="79"/>
+      <c r="K39" s="79"/>
     </row>
     <row r="40" spans="1:11" s="6" customFormat="1">
       <c r="A40" s="44" t="s">
@@ -5919,7 +5940,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="49" spans="1:11">
+    <row r="49" spans="1:12">
       <c r="A49" s="49">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -5945,7 +5966,7 @@
       </c>
       <c r="K49" s="49"/>
     </row>
-    <row r="50" spans="1:11">
+    <row r="50" spans="1:12">
       <c r="A50" s="47">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -5971,28 +5992,28 @@
       <c r="J50" s="38"/>
       <c r="K50" s="38"/>
     </row>
-    <row r="52" spans="1:11">
-      <c r="A52" s="75" t="s">
+    <row r="52" spans="1:12">
+      <c r="A52" s="78" t="s">
         <v>48</v>
       </c>
-      <c r="B52" s="75"/>
-      <c r="C52" s="75"/>
-      <c r="D52" s="76" t="s">
+      <c r="B52" s="78"/>
+      <c r="C52" s="78"/>
+      <c r="D52" s="79" t="s">
         <v>211</v>
       </c>
-      <c r="E52" s="76"/>
+      <c r="E52" s="79"/>
       <c r="F52" s="44" t="s">
         <v>152</v>
       </c>
-      <c r="G52" s="76" t="s">
+      <c r="G52" s="79" t="s">
         <v>163</v>
       </c>
-      <c r="H52" s="76"/>
-      <c r="I52" s="76"/>
-      <c r="J52" s="76"/>
-      <c r="K52" s="76"/>
-    </row>
-    <row r="53" spans="1:11" s="6" customFormat="1">
+      <c r="H52" s="79"/>
+      <c r="I52" s="79"/>
+      <c r="J52" s="79"/>
+      <c r="K52" s="79"/>
+    </row>
+    <row r="53" spans="1:12" s="6" customFormat="1">
       <c r="A53" s="44" t="s">
         <v>153</v>
       </c>
@@ -6027,7 +6048,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="54" spans="1:11">
+    <row r="54" spans="1:12">
       <c r="A54" s="32">
         <v>1</v>
       </c>
@@ -6054,7 +6075,7 @@
       <c r="J54" s="32"/>
       <c r="K54" s="32"/>
     </row>
-    <row r="55" spans="1:11">
+    <row r="55" spans="1:12">
       <c r="A55" s="32">
         <v>2</v>
       </c>
@@ -6081,7 +6102,7 @@
       <c r="J55" s="32"/>
       <c r="K55" s="32"/>
     </row>
-    <row r="56" spans="1:11">
+    <row r="56" spans="1:12">
       <c r="A56" s="32">
         <v>3</v>
       </c>
@@ -6108,7 +6129,7 @@
       <c r="J56" s="32"/>
       <c r="K56" s="32"/>
     </row>
-    <row r="57" spans="1:11">
+    <row r="57" spans="1:12">
       <c r="A57" s="32">
         <v>4</v>
       </c>
@@ -6135,7 +6156,7 @@
       <c r="J57" s="32"/>
       <c r="K57" s="32"/>
     </row>
-    <row r="58" spans="1:11">
+    <row r="58" spans="1:12">
       <c r="A58" s="32">
         <v>5</v>
       </c>
@@ -6162,7 +6183,7 @@
       <c r="J58" s="32"/>
       <c r="K58" s="32"/>
     </row>
-    <row r="59" spans="1:11">
+    <row r="59" spans="1:12">
       <c r="A59" s="52">
         <v>6</v>
       </c>
@@ -6185,7 +6206,7 @@
       <c r="J59" s="52"/>
       <c r="K59" s="52"/>
     </row>
-    <row r="60" spans="1:11">
+    <row r="60" spans="1:12">
       <c r="A60" s="52">
         <v>7</v>
       </c>
@@ -6210,7 +6231,7 @@
       </c>
       <c r="K60" s="52"/>
     </row>
-    <row r="61" spans="1:11">
+    <row r="61" spans="1:12">
       <c r="A61" s="52">
         <v>8</v>
       </c>
@@ -6235,8 +6256,118 @@
       </c>
       <c r="K61" s="32"/>
     </row>
+    <row r="63" spans="1:12">
+      <c r="A63" s="78" t="s">
+        <v>48</v>
+      </c>
+      <c r="B63" s="78"/>
+      <c r="C63" s="78"/>
+      <c r="D63" s="79" t="s">
+        <v>251</v>
+      </c>
+      <c r="E63" s="79"/>
+      <c r="F63" s="53" t="s">
+        <v>152</v>
+      </c>
+      <c r="G63" s="79" t="s">
+        <v>163</v>
+      </c>
+      <c r="H63" s="79"/>
+      <c r="I63" s="79"/>
+      <c r="J63" s="79"/>
+      <c r="K63" s="79"/>
+      <c r="L63" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" s="6" customFormat="1">
+      <c r="A64" s="53" t="s">
+        <v>153</v>
+      </c>
+      <c r="B64" s="53" t="s">
+        <v>154</v>
+      </c>
+      <c r="C64" s="53" t="s">
+        <v>154</v>
+      </c>
+      <c r="D64" s="53" t="s">
+        <v>155</v>
+      </c>
+      <c r="E64" s="53" t="s">
+        <v>156</v>
+      </c>
+      <c r="F64" s="53" t="s">
+        <v>157</v>
+      </c>
+      <c r="G64" s="53" t="s">
+        <v>158</v>
+      </c>
+      <c r="H64" s="53" t="s">
+        <v>159</v>
+      </c>
+      <c r="I64" s="53" t="s">
+        <v>202</v>
+      </c>
+      <c r="J64" s="53" t="s">
+        <v>160</v>
+      </c>
+      <c r="K64" s="53" t="s">
+        <v>161</v>
+      </c>
+      <c r="L64" s="6" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
+      <c r="A65" s="55">
+        <v>1</v>
+      </c>
+      <c r="B65" s="54"/>
+      <c r="C65" s="54"/>
+      <c r="D65" s="54"/>
+      <c r="E65" s="54"/>
+      <c r="F65" s="55"/>
+      <c r="G65" s="55"/>
+      <c r="H65" s="55"/>
+      <c r="I65" s="55"/>
+      <c r="J65" s="55"/>
+      <c r="K65" s="55"/>
+    </row>
+    <row r="66" spans="1:11">
+      <c r="A66" s="55">
+        <v>2</v>
+      </c>
+      <c r="B66" s="54"/>
+      <c r="C66" s="54"/>
+      <c r="D66" s="54"/>
+      <c r="E66" s="54"/>
+      <c r="F66" s="55"/>
+      <c r="G66" s="55"/>
+      <c r="H66" s="55"/>
+      <c r="I66" s="55"/>
+      <c r="J66" s="55"/>
+      <c r="K66" s="55"/>
+    </row>
+    <row r="67" spans="1:11">
+      <c r="A67" s="55">
+        <v>3</v>
+      </c>
+      <c r="B67" s="54"/>
+      <c r="C67" s="54"/>
+      <c r="D67" s="54"/>
+      <c r="E67" s="54"/>
+      <c r="F67" s="55"/>
+      <c r="G67" s="55"/>
+      <c r="H67" s="55"/>
+      <c r="I67" s="55"/>
+      <c r="J67" s="55"/>
+      <c r="K67" s="55"/>
+    </row>
   </sheetData>
-  <mergeCells count="24">
+  <mergeCells count="27">
+    <mergeCell ref="A63:C63"/>
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="G63:K63"/>
     <mergeCell ref="A4:C4"/>
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="G4:K4"/>
